--- a/biology/Zoologie/Dendrocoelidae/Dendrocoelidae.xlsx
+++ b/biology/Zoologie/Dendrocoelidae/Dendrocoelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dendrocoelidae sont une famille de vers plats d'eau douce de l'ordre des Tricladida (super-famille des Planarioidea et sous-ordre des Continenticola).
-Souvent ignorés car fuyant la lumière, ils ne mesurent généralement que quelques millimètres mais une espèce géante a été identifiée dans le Lac Baïkal (Bdellocephala angarensis bathyalis Timoshkin &amp; Porfirjeva, 1989), vivant de 610 à 1 060 m de fond, de couleur brun clair uniforme et dépourvue d'yeux[1]. Dans cette famille, de nouvelles espèces sont régulièrement découvertes[2],[3]. Certaines des espèces de cette famille sont aveugles[4]. 
-Au moins une espèce d'eau douce découverte en Roumanie, dans la grotte de Movile près de la ville de Mangalia (publication 2017) se montre capable de vivre dans un habitat chimioautotrophe[5].
+Souvent ignorés car fuyant la lumière, ils ne mesurent généralement que quelques millimètres mais une espèce géante a été identifiée dans le Lac Baïkal (Bdellocephala angarensis bathyalis Timoshkin &amp; Porfirjeva, 1989), vivant de 610 à 1 060 m de fond, de couleur brun clair uniforme et dépourvue d'yeux. Dans cette famille, de nouvelles espèces sont régulièrement découvertes,. Certaines des espèces de cette famille sont aveugles. 
+Au moins une espèce d'eau douce découverte en Roumanie, dans la grotte de Movile près de la ville de Mangalia (publication 2017) se montre capable de vivre dans un habitat chimioautotrophe.
 </t>
         </is>
       </c>
@@ -513,13 +525,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet avec auteur de ce taxon est Dendrocoelidae Hallez, 1892[6].
-Phylogénie
-Arbre phylogénétique des Tricladida[7]
-Liste des genres
-Selon la base de données World Register of Marine Species                               (25 janvier 2024)[6], la famille des Dendrocoelidae regroupe les genres suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet avec auteur de ce taxon est Dendrocoelidae Hallez, 1892.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dendrocoelidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrocoelidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique des Tricladida
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dendrocoelidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrocoelidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (25 janvier 2024), la famille des Dendrocoelidae regroupe les genres suivants :
 Acromyadenium de Beauchamp, 1931
 Alaoplana Kenk, 1974
 Amyadenium de Beauchamp, 1931
@@ -544,8 +628,43 @@
 Protocotylus Korotneff, 1908
 Rimacephalus Sabussov, 1901
 Sorocelis Grube, 1872
-Synonymes, reclassements, suppressions
-D'après World Register of Marine Species                               (25 janvier 2024)[6], les taxons suivants sont des synonymes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dendrocoelidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrocoelidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements, suppressions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après World Register of Marine Species                               (25 janvier 2024), les taxons suivants sont des synonymes :
 la sous-famille des Kenkiinae Hyman, 1937 est la famille des Kenkiidae Hyman, 1937
 le genre Anocelis Grube, 1872 est Alaoplana Kenk, 1974
 le genre Apodendrocoelum de Beauchamp, 1931 est Dendrocoelum Ørsted, 1844
@@ -559,13 +678,13 @@
 le genre Rjabuschinskya Zabusov, 1916 est reclassé sous le nom Seidlia Zabusov, 1911 dans la famille des Planariidae.
 le genre Sorocelopsis Komárek, 1919 est Dendrocoelum Ørsted, 1844
 le genre Thysanoplana Graff, 1912-17 est Papilloplana Kenk, 1974
-D'après World Register of Marine Species                               (25 janvier 2024)[6], les taxons suivants sont supprimés :
+D'après World Register of Marine Species                               (25 janvier 2024), les taxons suivants sont supprimés :
 la sous-famille Dendrocoelinae Hallez, 1892 ;
 le genre Gerstfeldtia Sabussowa, 1911 ;
 le genre Monocotylus Korotneff, 1912 ;
 le genre Neodendrocoelum Stankovic &amp; Komarek, 1927 ;
 le genre Palaeodendrocoelum Codreanu, 1949.
-Le genre Rectocephala Hyman, 1953 est un nom oublié[6].
+Le genre Rectocephala Hyman, 1953 est un nom oublié.
 </t>
         </is>
       </c>
